--- a/docs/inputs/20200818-All Alerts-1.xlsx
+++ b/docs/inputs/20200818-All Alerts-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sujoysett/SujoyThings/ECLIPSE_WORKSPACE/trade-alert-pivot/docs/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894546BE-EB33-AC4D-9808-B5365DFE7FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4386A020-ABBD-7A4C-81B7-501B9D1C5973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="191">
   <si>
     <t>Alert name</t>
   </si>
@@ -593,12 +593,6 @@
   </si>
   <si>
     <t>BANKNIFTY TVSMOTOR</t>
-  </si>
-  <si>
-    <t>Tue Aug 18 2020, 11:50 am</t>
-  </si>
-  <si>
-    <t>AMARAJABAT BANKNIFTY BOSCHLTD CENTURYTEX TVSMOTOR</t>
   </si>
 </sst>
 </file>
@@ -954,13 +948,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+      <selection activeCell="A111" sqref="A111:XFD111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.6640625" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
@@ -968,7 +962,7 @@
     <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -996,7 +990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1010,7 +1004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1024,7 +1018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1038,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +1046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1066,7 +1060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1080,7 +1074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1094,7 +1088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1108,7 +1102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1122,7 +1116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1136,7 +1130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +1144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1164,7 +1158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1178,7 +1172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1192,7 +1186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1206,7 +1200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1220,7 +1214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1234,7 +1228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1248,7 +1242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1262,7 +1256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1276,7 +1270,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1290,7 +1284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1304,7 +1298,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1318,7 +1312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1326,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1346,7 +1340,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1360,7 +1354,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1374,7 +1368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1388,7 +1382,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1402,7 +1396,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1416,7 +1410,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1430,7 +1424,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1444,7 +1438,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1458,7 +1452,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1472,7 +1466,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1486,7 +1480,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1500,7 +1494,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1514,7 +1508,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1528,7 +1522,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1542,7 +1536,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1556,7 +1550,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -1570,7 +1564,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1584,7 +1578,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1598,7 +1592,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1612,7 +1606,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1626,7 +1620,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1640,7 +1634,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -1654,7 +1648,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1668,7 +1662,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1682,7 +1676,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1696,7 +1690,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1710,7 +1704,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1724,7 +1718,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -1738,7 +1732,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1752,7 +1746,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1766,7 +1760,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -1780,7 +1774,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1794,7 +1788,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -1808,7 +1802,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -1822,7 +1816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>101</v>
       </c>
@@ -1836,7 +1830,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -1850,7 +1844,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -1864,7 +1858,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -1878,7 +1872,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1892,7 +1886,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -1906,7 +1900,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -1920,7 +1914,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1934,7 +1928,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -1948,7 +1942,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -1962,7 +1956,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -1976,7 +1970,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -1990,7 +1984,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>54</v>
       </c>
@@ -2004,7 +1998,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -2018,7 +2012,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -2032,7 +2026,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -2046,7 +2040,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -2060,7 +2054,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -2074,7 +2068,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -2088,7 +2082,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -2102,7 +2096,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>54</v>
       </c>
@@ -2116,7 +2110,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -2130,7 +2124,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -2144,7 +2138,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -2158,7 +2152,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -2172,7 +2166,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -2186,7 +2180,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -2200,7 +2194,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -2214,7 +2208,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -2228,7 +2222,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -2242,7 +2236,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>54</v>
       </c>
@@ -2256,7 +2250,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2270,7 +2264,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -2284,7 +2278,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -2298,7 +2292,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -2312,7 +2306,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -2326,7 +2320,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -2340,7 +2334,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -2354,7 +2348,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>54</v>
       </c>
@@ -2368,7 +2362,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -2382,7 +2376,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -2396,7 +2390,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -2410,7 +2404,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>54</v>
       </c>
@@ -2424,7 +2418,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>22</v>
       </c>
@@ -2438,7 +2432,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -2452,7 +2446,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>22</v>
       </c>
@@ -2466,7 +2460,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -2480,7 +2474,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>22</v>
       </c>
@@ -2494,7 +2488,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -2507,347 +2501,6 @@
       <c r="D110" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>11</v>
-      </c>
-      <c r="B111" t="s">
-        <v>191</v>
-      </c>
-      <c r="C111" s="2">
-        <v>5</v>
-      </c>
-      <c r="D111" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C117" s="2"/>
-    </row>
-    <row r="118" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C118" s="2"/>
-    </row>
-    <row r="119" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C119" s="2"/>
-    </row>
-    <row r="120" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C120" s="2"/>
-    </row>
-    <row r="121" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C121" s="2"/>
-    </row>
-    <row r="122" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C122" s="2"/>
-    </row>
-    <row r="123" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C123" s="2"/>
-    </row>
-    <row r="124" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C124" s="2"/>
-    </row>
-    <row r="125" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C125" s="2"/>
-    </row>
-    <row r="126" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C126" s="2"/>
-    </row>
-    <row r="127" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C127" s="2"/>
-    </row>
-    <row r="128" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C128" s="2"/>
-    </row>
-    <row r="129" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C129" s="2"/>
-    </row>
-    <row r="130" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C130" s="2"/>
-    </row>
-    <row r="131" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C133" s="2"/>
-    </row>
-    <row r="134" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C134" s="2"/>
-    </row>
-    <row r="135" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C135" s="2"/>
-    </row>
-    <row r="136" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C136" s="2"/>
-    </row>
-    <row r="137" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C137" s="2"/>
-    </row>
-    <row r="138" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C138" s="2"/>
-    </row>
-    <row r="139" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C139" s="2"/>
-    </row>
-    <row r="140" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C140" s="2"/>
-    </row>
-    <row r="141" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C141" s="2"/>
-    </row>
-    <row r="142" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C142" s="2"/>
-    </row>
-    <row r="143" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C143" s="2"/>
-    </row>
-    <row r="144" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C144" s="2"/>
-    </row>
-    <row r="145" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C145" s="2"/>
-    </row>
-    <row r="146" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C146" s="2"/>
-    </row>
-    <row r="147" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C147" s="2"/>
-    </row>
-    <row r="148" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C148" s="2"/>
-    </row>
-    <row r="149" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C149" s="2"/>
-    </row>
-    <row r="150" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C150" s="2"/>
-    </row>
-    <row r="151" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C151" s="2"/>
-    </row>
-    <row r="152" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C152" s="2"/>
-    </row>
-    <row r="153" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C153" s="2"/>
-    </row>
-    <row r="154" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C154" s="2"/>
-    </row>
-    <row r="155" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C155" s="2"/>
-    </row>
-    <row r="156" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C156" s="2"/>
-    </row>
-    <row r="157" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C157" s="2"/>
-    </row>
-    <row r="158" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C158" s="2"/>
-    </row>
-    <row r="159" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C159" s="2"/>
-    </row>
-    <row r="160" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C160" s="2"/>
-    </row>
-    <row r="161" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C161" s="2"/>
-    </row>
-    <row r="162" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C162" s="2"/>
-    </row>
-    <row r="163" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C163" s="2"/>
-    </row>
-    <row r="164" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C164" s="2"/>
-    </row>
-    <row r="165" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C165" s="2"/>
-    </row>
-    <row r="166" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C166" s="2"/>
-    </row>
-    <row r="167" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C167" s="2"/>
-    </row>
-    <row r="168" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C168" s="2"/>
-    </row>
-    <row r="169" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C169" s="2"/>
-    </row>
-    <row r="170" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C170" s="2"/>
-    </row>
-    <row r="171" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C171" s="2"/>
-    </row>
-    <row r="172" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C172" s="2"/>
-    </row>
-    <row r="173" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C173" s="2"/>
-    </row>
-    <row r="174" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C174" s="2"/>
-    </row>
-    <row r="175" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C175" s="2"/>
-    </row>
-    <row r="176" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C176" s="2"/>
-    </row>
-    <row r="177" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C177" s="2"/>
-    </row>
-    <row r="178" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C178" s="2"/>
-    </row>
-    <row r="179" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C179" s="2"/>
-    </row>
-    <row r="180" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C180" s="2"/>
-    </row>
-    <row r="181" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C181" s="2"/>
-    </row>
-    <row r="182" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C182" s="2"/>
-    </row>
-    <row r="183" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C183" s="2"/>
-    </row>
-    <row r="184" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C184" s="2"/>
-    </row>
-    <row r="185" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C185" s="2"/>
-    </row>
-    <row r="186" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C186" s="2"/>
-    </row>
-    <row r="187" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C187" s="2"/>
-    </row>
-    <row r="188" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C188" s="2"/>
-    </row>
-    <row r="189" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C189" s="2"/>
-    </row>
-    <row r="190" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C190" s="2"/>
-    </row>
-    <row r="191" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C191" s="2"/>
-    </row>
-    <row r="192" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C192" s="2"/>
-    </row>
-    <row r="193" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C193" s="2"/>
-    </row>
-    <row r="194" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C194" s="2"/>
-    </row>
-    <row r="195" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C195" s="2"/>
-    </row>
-    <row r="196" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C196" s="2"/>
-    </row>
-    <row r="197" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C197" s="2"/>
-    </row>
-    <row r="198" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C198" s="2"/>
-    </row>
-    <row r="199" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C199" s="2"/>
-    </row>
-    <row r="200" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C200" s="2"/>
-    </row>
-    <row r="201" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C201" s="2"/>
-    </row>
-    <row r="202" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C202" s="2"/>
-    </row>
-    <row r="203" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C203" s="2"/>
-    </row>
-    <row r="204" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C204" s="2"/>
-    </row>
-    <row r="205" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C205" s="2"/>
-    </row>
-    <row r="206" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C206" s="2"/>
-    </row>
-    <row r="207" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C207" s="2"/>
-    </row>
-    <row r="208" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C208" s="2"/>
-    </row>
-    <row r="209" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C209" s="2"/>
-    </row>
-    <row r="210" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C210" s="2"/>
-    </row>
-    <row r="211" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C211" s="2"/>
-    </row>
-    <row r="212" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C212" s="2"/>
-    </row>
-    <row r="213" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C213" s="2"/>
-    </row>
-    <row r="214" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C214" s="2"/>
-    </row>
-    <row r="215" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C215" s="2"/>
-    </row>
-    <row r="216" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C216" s="2"/>
-    </row>
-    <row r="217" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C217" s="2"/>
-    </row>
-    <row r="218" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C218" s="2"/>
-    </row>
-    <row r="219" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C219" s="2"/>
-    </row>
-    <row r="220" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C220" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
